--- a/00.기획서/221018_UI시스템 기획서_V100.xlsx
+++ b/00.기획서/221018_UI시스템 기획서_V100.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_26\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,26 +54,6 @@
   </si>
   <si>
     <t>UI 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인 화면에서 스토리 모드 버튼을 눌러 스토리리 모드 진입 가능
-스토리 모드 버튼을 터치하면 챕터 리스트 출력
-플레이 가능한 챕터의 경우 밝은 톤의 UI 출력
-플레이 불가능한 챕터의 경우 어두운 톤의 UI 출력
-플레이 불가능한 챕터 버튼 하단에 개방 조건 텍스트 출력
-스크롤 바를 이용해 챕터 리스트를 확인할 수 있음
-플레이 가능한 챕터를 터치했을 경우 스테이지 전체 UI가 출력되고 그 안에 3 가지의 스테이지 버튼이 출력
-스테이지 버튼을 누르면 시작 및 목표 지점들이 표시되어 있는 미니맵 출력
-지점들은 선으로 연결되어 미니맵에 출력
-플레이어의 위치가 GPS 상 미니맵 안에 존재한다면 미니맵에 플레이어의 현재 위치 원(동그라미)으로 출력
-미니맵 하단에 스토리 개요 텍스트 출력
-화면 최하단에 Start 버튼 출력
-플레이어가 시작 지점 반경에 있을 경우 밝은 톤의 버튼 활성화
-플레이어가 시작 지점 반경에 없을 경우 어두운 톤의 버튼으로 활성화
-스토리 모드를 시작하면 카메라 활성화 및 바닥 인식 후 캐릭터 출력
-우측 화면 상단에 미니맵 출력
-미니맵 안에는 플레이어의 위치와 경로가 표시됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,6 +136,31 @@
 기본적으로 idle 모션을 지속 재생하고 있고, 터치 하면 2종 중 랜덤 출력하며 대사를 출력한다
 </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 화면에서 스토리 모드 버튼을 눌러 스토리리 모드 진입 가능
+스토리 모드 버튼을 터치하면 챕터 리스트 출력
+플레이 가능한 챕터의 경우 밝은 톤의 UI 출력
+플레이 불가능한 챕터의 경우 어두운 톤의 UI 출력
+플레이 불가능한 챕터 버튼 하단에 개방 조건 텍스트 출력
+스크롤 바를 이용해 챕터 리스트를 확인할 수 있음 
+플레이 가능한 챕터를 터치했을 경우 스테이지 전체 UI가 출력되고 그 안에 3 가지의 스테이지 버튼이 출력
+스테이지 버튼을 누르면 시작 및 목표 지점들이 표시되어 있는 미니맵 출력
+지점들은 선으로 연결되어 미니맵에 출력
+플레이어의 위치가 GPS 상 미니맵 안에 존재한다면 미니맵에 플레이어의 현재 위치 원(동그라미)으로 출력
+미니맵 하단에 스토리 개요 텍스트 출력
+화면 최하단에 Start 버튼 출력
+스테이지 버튼을 누르면 스크롤 바 삭제
+플레이어가 시작 지점 반경에 있을 경우 밝은 톤의 버튼 활성화
+플레이어가 시작 지점 반경에 없을 경우 어두운 톤의 버튼으로 활성화
+스토리 모드를 시작하면 카메라 활성화 및 바닥 인식 후 캐릭터 출력
+우측 화면 상단에 미니맵 출력
+미니맵 안에는 플레이어의 위치와 경로가 표시됨
+좌측 상단에 메뉴 버튼 출력
+메뉴 버튼을 누르면 화면 일시정지 상태 돌입
+일시정지 상태에서는 화면 중앙에 스토리 모드 종료 버튼과 재개 버튼 출력
+휴대폰 전원을 끄고 다시 화면을 켰을 때 일시정지 상태로 돌입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,17 +251,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
@@ -3728,1199 +3733,1010 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>215607</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>9517</xdr:rowOff>
+      <xdr:rowOff>9518</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="27" name="그룹 26"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="623826" y="7747495"/>
-          <a:ext cx="3382731" cy="6863847"/>
-          <a:chOff x="1419449" y="0"/>
-          <a:chExt cx="3382732" cy="6858000"/>
+          <a:ext cx="3382731" cy="6863848"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="39" name="그림 38"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1419449" y="0"/>
-            <a:ext cx="3382732" cy="6858000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="직사각형 39"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1862155" y="1036093"/>
-            <a:ext cx="2316243" cy="465513"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Stage 1</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="직사각형 40"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4335237" y="252616"/>
-            <a:ext cx="82463" cy="6168046"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="42" name="직사각형 41"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4335237" y="3064162"/>
-            <a:ext cx="90757" cy="729677"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="오른쪽 화살표 42"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="1701961" y="321280"/>
-            <a:ext cx="374073" cy="280554"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightArrow">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="직사각형 43"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1862156" y="1501605"/>
-            <a:ext cx="2316242" cy="4392119"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent4">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="45" name="그림 44"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1862155" y="2089271"/>
-            <a:ext cx="2316243" cy="1885505"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="직사각형 45"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2565512" y="5379627"/>
-            <a:ext cx="909528" cy="428431"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Start</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="직사각형 46"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2005024" y="4112677"/>
-            <a:ext cx="2056436" cy="1114643"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="TextBox 3"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2282928" y="4485332"/>
-            <a:ext cx="1794926" cy="369332"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>18782</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>277625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>96856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="직사각형 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066532" y="8784471"/>
+          <a:ext cx="2316243" cy="465910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
           <a:noFill/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>스토리 개요</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>Stage 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>544388</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>172824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>232661</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>34517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="오른쪽 화살표 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="906338" y="8069049"/>
+          <a:ext cx="374073" cy="280793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>18783</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>96855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>277625</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>92169</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="직사각형 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066533" y="9250380"/>
+          <a:ext cx="2316242" cy="4395864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>18782</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>56373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>277625</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="그림 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066532" y="9838548"/>
+          <a:ext cx="2316243" cy="1887113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>36339</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>206284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>260067</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>6430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="직사각형 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1769889" y="13131709"/>
+          <a:ext cx="909528" cy="428796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>Start</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161651</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>195554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160687</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>53847</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="직사각형 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209401" y="11863679"/>
+          <a:ext cx="2056436" cy="1115593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>439555</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>149427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>177081</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>99974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1487305" y="12236652"/>
+          <a:ext cx="1794926" cy="369647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>스토리 개요</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5126,286 +4942,6 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="직사각형 30"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9045048" y="252616"/>
-            <a:ext cx="82463" cy="6168046"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="직사각형 31"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9045048" y="3064162"/>
-            <a:ext cx="90757" cy="729677"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
           <xdr:cNvPr id="33" name="오른쪽 화살표 32"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
@@ -6184,286 +5720,6 @@
           </a:prstGeom>
         </xdr:spPr>
       </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="직사각형 50"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4335237" y="252616"/>
-            <a:ext cx="82463" cy="6168046"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="52" name="직사각형 51"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4335237" y="3064162"/>
-            <a:ext cx="90757" cy="729677"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ko-KR"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-              <a:defRPr sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
           <xdr:cNvPr id="53" name="그림 52"/>
@@ -6517,6 +5773,588 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>229210</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>94640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="그림 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8134960" y="8162925"/>
+          <a:ext cx="247040" cy="247040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228941</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>86625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>193879</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>131448</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="57" name="그룹 56"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11563691" y="7773300"/>
+          <a:ext cx="3393938" cy="6750423"/>
+          <a:chOff x="1419449" y="0"/>
+          <a:chExt cx="3382732" cy="6858000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="58" name="그림 57"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1419449" y="0"/>
+            <a:ext cx="3382732" cy="6858000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="61" name="그림 60"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3139546" y="252617"/>
+            <a:ext cx="1187397" cy="966584"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="62" name="그림 61"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2171980" y="1943913"/>
+            <a:ext cx="1697922" cy="4476749"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>543266</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>39000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104506</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="그림 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11878016" y="8144775"/>
+          <a:ext cx="247040" cy="247040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="직사각형 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11763374" y="7981949"/>
+          <a:ext cx="2809876" cy="6124575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45864</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>34835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>269592</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>44531</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="직사각형 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12752214" y="10655210"/>
+          <a:ext cx="909528" cy="428796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200"/>
+            <a:t>재개</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45865</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>206285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>269593</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>6431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="직사각형 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12752215" y="11455310"/>
+          <a:ext cx="909528" cy="428796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200"/>
+            <a:t>나가기</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11823,208 +11661,208 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -12034,9 +11872,9 @@
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
@@ -12048,9 +11886,9 @@
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
@@ -12062,9 +11900,9 @@
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
@@ -12076,9 +11914,9 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
@@ -12158,303 +11996,303 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
@@ -12463,7 +12301,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -12488,428 +12326,428 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
-        <v>12</v>
+      <c r="B36" s="9" t="s">
+        <v>11</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
@@ -12975,10 +12813,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R142"/>
+  <dimension ref="B1:V142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73:L85"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12988,1381 +12826,1549 @@
   <sheetData>
     <row r="1" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>5</v>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-    </row>
-    <row r="39" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="2"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="2"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-    </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B72" s="6" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+    </row>
+    <row r="39" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B72" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B73" s="7" t="s">
-        <v>4</v>
+    <row r="73" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="9" t="s">
+        <v>12</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
+    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
@@ -15122,9 +15128,9 @@
   <mergeCells count="5">
     <mergeCell ref="B4:L37"/>
     <mergeCell ref="B72:L72"/>
-    <mergeCell ref="B73:L85"/>
-    <mergeCell ref="B38:Q71"/>
     <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B73:L88"/>
+    <mergeCell ref="B38:V71"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15147,967 +15153,967 @@
   <sheetData>
     <row r="1" spans="2:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B50" s="3"/>

--- a/00.기획서/221018_UI시스템 기획서_V100.xlsx
+++ b/00.기획서/221018_UI시스템 기획서_V100.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="3660" windowWidth="28800" windowHeight="15435" activeTab="3"/>
+    <workbookView xWindow="5190" yWindow="3660" windowWidth="28800" windowHeight="15435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>로딩 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,35 +53,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>챕터 선택 - 스테이지 선택 - 인게임 UI 레퍼런스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>산책 UI  + 인벤토리 UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UI 시스템 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-메인 화면에서 산책 버튼을 통해 산책 진입 가능
-산책 진입하면 화면 좌측 하단에 인벤토리 버튼과 우측 하단에 캐릭터 On/Off 버튼 출력
-캐릭터가 출력되지 않은 상태면 캐릭터 On 버튼이 출력
-캐릭터가 출력된 상태면 캐릭터 Off 버튼 출력
-인벤토리 버튼을 누르면 인벤토리 UI 출력
-인벤토리 UI 안에 현재 플레이어가 소유하고 있는 아이템들이 칸마다 출력
-인벤토리 UI 좌측 상단에 인벤토리 UI 끄는 아이콘 출력
-플레이어가 소유한 아이템을 1초간 누르면 아이템 위치 기준 좌측 상단에 세부 UI 출력
-세부 UI 상단에 아이템 이름과 개수 출력
-'아이템 이름 X n'으로 출력된다
-세부 UI 중간에 선물하기 버튼 출력
-세부 UI 하단에 선물 버리기 버튼 출력   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -139,28 +115,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인 화면에서 스토리 모드 버튼을 눌러 스토리리 모드 진입 가능
-스토리 모드 버튼을 터치하면 챕터 리스트 출력
-플레이 가능한 챕터의 경우 밝은 톤의 UI 출력
-플레이 불가능한 챕터의 경우 어두운 톤의 UI 출력
-플레이 불가능한 챕터 버튼 하단에 개방 조건 텍스트 출력
-스크롤 바를 이용해 챕터 리스트를 확인할 수 있음 
-플레이 가능한 챕터를 터치했을 경우 스테이지 전체 UI가 출력되고 그 안에 3 가지의 스테이지 버튼이 출력
-스테이지 버튼을 누르면 시작 및 목표 지점들이 표시되어 있는 미니맵 출력
-지점들은 선으로 연결되어 미니맵에 출력
-플레이어의 위치가 GPS 상 미니맵 안에 존재한다면 미니맵에 플레이어의 현재 위치 원(동그라미)으로 출력
-미니맵 하단에 스토리 개요 텍스트 출력
-화면 최하단에 Start 버튼 출력
-스테이지 버튼을 누르면 스크롤 바 삭제
-플레이어가 시작 지점 반경에 있을 경우 밝은 톤의 버튼 활성화
-플레이어가 시작 지점 반경에 없을 경우 어두운 톤의 버튼으로 활성화
-스토리 모드를 시작하면 카메라 활성화 및 바닥 인식 후 캐릭터 출력
-우측 화면 상단에 미니맵 출력
-미니맵 안에는 플레이어의 위치와 경로가 표시됨
-좌측 상단에 메뉴 버튼 출력
-메뉴 버튼을 누르면 화면 일시정지 상태 돌입
-일시정지 상태에서는 화면 중앙에 스토리 모드 종료 버튼과 재개 버튼 출력
-휴대폰 전원을 끄고 다시 화면을 켰을 때 일시정지 상태로 돌입</t>
+    <t>UI 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 메인 화면에서 스토리 모드 버튼을 눌러 스토리 모드 진입 가능
+2. 스토리 모드 버튼을 터치하면 챕터 리스트 출력
+3. 플레이 가능한 챕터의 경우 밝은 톤의 UI 출력
+3-1. 플레이 불가능한 챕터의 경우 어두운 톤의 UI 출력
+4. 플레이 불가능한 챕터 버튼 하단에 개방 조건 텍스트 출력
+5. 스크롤 바를 이용해 챕터 리스트를 확인할 수 있음 
+6. 플레이 가능한 챕터를 터치했을 경우 스테이지 전체 UI가 출력되고 그 안에 3 가지의 스테이지 버튼이 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 스테이지 버튼을 누르면 시작 및 목표 지점들이 표시되어 있는 미니맵 출력
+2. 지점(시작지점과 목표지점)들은 선으로 연결되어 미니맵에 출력
+3. 플레이어의 위치가 GPS 상 미니맵 안에 존재한다면 미니맵에 플레이어의 현재 위치 원(동그라미)으로 출력
+4. 미니맵 하단에 스토리 개요 텍스트 출력
+5. 화면 최하단에 Start 버튼 출력
+6. 스테이지 버튼을 누르면 스크롤 바 삭제
+7.플레이어가 시작 지점 반경에 있을 경우 밝은 톤의 버튼 활성화
+7-1.플레이어가 시작 지점 반경에 없을 경우 어두운 톤의 버튼으로 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 스토리 모드를 시작하면 카메라 활성화 및 바닥 인식 후 캐릭터 출력
+2. 우측 화면 상단에 미니맵 출력
+2-1. 미니맵 안에는 플레이어의 위치와 경로가 표시됨
+3. 좌측 상단에 메뉴 버튼 출력
+4. 메뉴 버튼을 누르면 화면 일시정지 상태 돌입
+5. 일시정지 상태에서는 화면 중앙에 스토리 모드 종료 버튼과 재개 버튼 출력
+6. 휴대폰 전원을 끄고 다시 화면을 켰을 때 일시정지 상태로 돌입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 시스템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 메인 화면에서 산책 버튼을 통해 산책 진입 가능
+2. 산책 진입하면 화면 좌측 하단에 인벤토리 버튼과 우측 하단에 캐릭터 호출 혹은 퇴장 버튼 한 가지만 출력
+3. 캐릭터가 출력되지 않은 상태면 캐릭터 호출 버튼이 출력
+3-1. 캐릭터가 출력된 상태면 캐릭터 퇴장 버튼 출력
+4. 캐릭터가 출력되지 않은 상태에서 캐릭터 호출 버튼을 터치하면 캐릭터가 화면에 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 시스템 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 인벤토리 버튼을 누르면 인벤토리 UI 출력
+2. 인벤토리는 8개의 슬롯으로 구성
+3. 한 슬롯당 아이템은 최대 9개까지 들어갈 수 있음
+2. 인벤토리 UI 안에 현재 플레이어가 소유하고 있는 아이템들이 칸마다 출력
+3. 인벤토리 UI 좌측 상단에 인벤토리 UI 끄는 아이콘 출력
+4. 플레이어가 소유한 아이템을 1초간 누르면 아이템 위치 기준 좌측 상단에 세부 UI 출력
+5. 세부 UI 상단에 아이템 이름과 개수 출력
+6. '아이템 이름 X n'으로 출력된다
+7. 세부 UI 중간에 선물하기 버튼 출력
+7-1. 세부 UI 하단에 선물 버리기 버튼 출력   
+8. 인벤토리의 아이템 슬롯이 가득 찼을 때 "공간이 부족합니다" 메세지 화면 중앙에 출력
+9-1. 같은 ID의 아이템의 경우, 9개까지 차고, 남은 슬롯에 아이템이 쌓인다
+9-2. 다른 ID의 경우, 남은 슬롯에 아이템이 쌓인다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -265,6 +290,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2440,7 +2468,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2507710" y="2836298"/>
+            <a:off x="2479181" y="2741048"/>
             <a:ext cx="1892047" cy="577081"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2916,7 +2944,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2478339" y="4169300"/>
+            <a:off x="2440301" y="4074050"/>
             <a:ext cx="1892047" cy="577081"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3392,7 +3420,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2457015" y="5502302"/>
+            <a:off x="2380937" y="5416577"/>
             <a:ext cx="1892047" cy="577081"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3725,15 +3753,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>261876</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>60820</xdr:rowOff>
+      <xdr:colOff>4701</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>146545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215607</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>9518</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>644232</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3756,7 +3784,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="623826" y="7747495"/>
+          <a:off x="366651" y="9300070"/>
           <a:ext cx="3382731" cy="6863848"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3768,16 +3796,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>18782</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>50046</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447407</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>135771</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>277625</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>96856</xdr:rowOff>
+      <xdr:colOff>20450</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>182581</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3786,7 +3814,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066532" y="8784471"/>
+          <a:off x="809357" y="10337046"/>
           <a:ext cx="2316243" cy="465910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3930,15 +3958,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>544388</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>172824</xdr:rowOff>
+      <xdr:colOff>287213</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>48999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>232661</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>34517</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>661286</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>120242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3947,7 +3975,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="906338" y="8069049"/>
+          <a:off x="649163" y="9621624"/>
           <a:ext cx="374073" cy="280793"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -4085,16 +4113,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>18783</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>96855</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447408</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>182580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>277625</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>92169</xdr:rowOff>
+      <xdr:colOff>20450</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>177894</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4103,7 +4131,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066533" y="9250380"/>
+          <a:off x="809358" y="10802955"/>
           <a:ext cx="2316242" cy="4395864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4242,16 +4270,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>18782</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>56373</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447407</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>142098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>277625</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>57536</xdr:rowOff>
+      <xdr:colOff>20450</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>143261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4268,7 +4296,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1066532" y="9838548"/>
+          <a:off x="809357" y="11391123"/>
           <a:ext cx="2316243" cy="1887113"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4280,16 +4308,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>36339</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>206284</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464964</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>82459</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>260067</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>6430</xdr:rowOff>
+      <xdr:colOff>2892</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>92155</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4298,7 +4326,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1769889" y="13131709"/>
+          <a:off x="1512714" y="14684284"/>
           <a:ext cx="909528" cy="428796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4441,16 +4469,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>161651</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>195554</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590276</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>71729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>160687</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>53847</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>589312</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>139572</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4459,7 +4487,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1209401" y="11863679"/>
+          <a:off x="952226" y="13416254"/>
           <a:ext cx="2056436" cy="1115593"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4599,15 +4627,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>439555</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>149427</xdr:rowOff>
+      <xdr:colOff>182380</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>25602</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>177081</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>99974</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>605706</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>185699</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4616,7 +4644,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1487305" y="12236652"/>
+          <a:off x="1230130" y="13789227"/>
           <a:ext cx="1794926" cy="369647"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4741,16 +4769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>26384</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47177</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>369284</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142427</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>667572</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>202939</xdr:rowOff>
+      <xdr:colOff>324672</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>88639</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4759,7 +4787,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4503134" y="7733852"/>
+          <a:off x="4160234" y="9295952"/>
           <a:ext cx="3384388" cy="6861362"/>
           <a:chOff x="6129260" y="0"/>
           <a:chExt cx="3382732" cy="6858000"/>
@@ -5088,7 +5116,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6571967" y="1501605"/>
+            <a:off x="6571966" y="1501605"/>
             <a:ext cx="2316242" cy="4392119"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -5667,16 +5695,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>628991</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>124725</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247991</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>105675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>593929</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>169548</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>212929</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>150498</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5685,7 +5713,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7848941" y="7811400"/>
+          <a:off x="609941" y="18060300"/>
           <a:ext cx="3393938" cy="6750423"/>
           <a:chOff x="1419449" y="0"/>
           <a:chExt cx="3382732" cy="6858000"/>
@@ -5735,7 +5763,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3139546" y="252617"/>
+            <a:off x="3215494" y="281647"/>
             <a:ext cx="1187397" cy="966584"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -5777,16 +5805,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>229210</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>553060</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>94640</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>27965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5809,7 +5837,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8134960" y="8162925"/>
+          <a:off x="915010" y="18364200"/>
           <a:ext cx="247040" cy="247040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5821,16 +5849,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228941</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>86625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533741</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>48525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>193879</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>131448</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>498679</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>93348</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5839,7 +5867,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11563691" y="7773300"/>
+          <a:off x="4324691" y="18003150"/>
           <a:ext cx="3393938" cy="6750423"/>
           <a:chOff x="1419449" y="0"/>
           <a:chExt cx="3382732" cy="6858000"/>
@@ -5931,16 +5959,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>543266</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>39000</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133691</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>181875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>104506</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76490</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380731</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>9815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5963,7 +5991,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11878016" y="8144775"/>
+          <a:off x="4610441" y="18346050"/>
           <a:ext cx="247040" cy="247040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5975,16 +6003,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5993,7 +6021,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11763374" y="7981949"/>
+          <a:off x="4524374" y="18221324"/>
           <a:ext cx="2809876" cy="6124575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6039,16 +6067,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>45864</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>34835</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350664</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>6260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>269592</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>44531</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>574392</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>15956</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6057,7 +6085,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12752214" y="10655210"/>
+          <a:off x="5513214" y="20894585"/>
           <a:ext cx="909528" cy="428796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6199,16 +6227,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>45865</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>206285</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350665</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>177710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>269593</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>6431</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>574393</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>187406</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6217,7 +6245,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12752215" y="11455310"/>
+          <a:off x="5513215" y="21694685"/>
           <a:ext cx="909528" cy="428796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6365,15 +6393,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>58507</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>306157</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6382,8 +6410,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="485775" y="723900"/>
-          <a:ext cx="3382732" cy="6858000"/>
+          <a:off x="733425" y="828675"/>
+          <a:ext cx="3371526" cy="6968938"/>
           <a:chOff x="2745980" y="0"/>
           <a:chExt cx="3382732" cy="6858000"/>
         </a:xfrm>
@@ -6548,13 +6576,8 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-              <a:t>캐릭터 </a:t>
+              <a:t>캐릭터 호출</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-              <a:t>On</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -6701,15 +6724,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>17901</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>246501</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>657433</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200233</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6718,8 +6741,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3827901" y="666750"/>
-          <a:ext cx="3382732" cy="6858000"/>
+          <a:off x="4045295" y="838200"/>
+          <a:ext cx="3371526" cy="6968938"/>
           <a:chOff x="6392906" y="0"/>
           <a:chExt cx="3382732" cy="6858000"/>
         </a:xfrm>
@@ -6913,13 +6936,8 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-              <a:t>캐릭터 </a:t>
+              <a:t>캐릭터 퇴장</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-              <a:t>Off</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -7065,16 +7083,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>534757</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>58507</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7083,8 +7101,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7134225" y="638175"/>
-          <a:ext cx="3382732" cy="6858000"/>
+          <a:off x="485775" y="9529482"/>
+          <a:ext cx="3371526" cy="6965577"/>
           <a:chOff x="2745980" y="0"/>
           <a:chExt cx="3382732" cy="6858000"/>
         </a:xfrm>
@@ -7278,13 +7296,8 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-              <a:t>캐릭터 </a:t>
+              <a:t>캐릭터 퇴장</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-              <a:t>On</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -8854,16 +8867,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>382357</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>591907</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8872,8 +8885,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10410825" y="638175"/>
-          <a:ext cx="3382732" cy="6858000"/>
+          <a:off x="3753410" y="9529482"/>
+          <a:ext cx="3371526" cy="6965577"/>
           <a:chOff x="2745980" y="0"/>
           <a:chExt cx="3382732" cy="6858000"/>
         </a:xfrm>
@@ -9067,13 +9080,8 @@
             <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-              <a:t>캐릭터 </a:t>
+              <a:t>캐릭터 퇴장</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-              <a:t>On</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -11350,6 +11358,447 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>315682</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="50" name="그룹 49"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6894979" y="9510432"/>
+          <a:ext cx="3371527" cy="6965577"/>
+          <a:chOff x="2745980" y="0"/>
+          <a:chExt cx="3382732" cy="6858000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="51" name="그림 50"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2745980" y="0"/>
+            <a:ext cx="3382732" cy="6858000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="직사각형 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4701540" y="6023610"/>
+            <a:ext cx="960120" cy="308610"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>캐릭터 퇴장</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="직사각형 53"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3045768" y="6050280"/>
+            <a:ext cx="809952" cy="281940"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="ko-KR"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>인벤토리</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>563655</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>131109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324069</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="그림 73"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7780243" y="13241991"/>
+          <a:ext cx="1127532" cy="1157568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="직사각형 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="12382501"/>
+          <a:ext cx="2581275" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" b="1"/>
+            <a:t>공간이 부족합니다</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11662,7 +12111,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -11862,7 +12311,7 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -12301,7 +12750,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -12319,7 +12768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -12669,7 +13118,7 @@
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -12813,10 +13262,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V142"/>
+  <dimension ref="B1:V191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P75" sqref="P75"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N137" sqref="N136:N137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12827,7 +13276,7 @@
     <row r="1" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -13300,7 +13749,9 @@
       <c r="L37" s="8"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B38" s="8"/>
+      <c r="B38" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -13311,918 +13762,920 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
     </row>
     <row r="39" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
+      <c r="B39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="8"/>
-      <c r="R43" s="8"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="8"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="8"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="8"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="8"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="8"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="8"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
-      <c r="S58" s="8"/>
-      <c r="T58" s="8"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="8"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
-      <c r="S59" s="8"/>
-      <c r="T59" s="8"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="8"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
-      <c r="S60" s="8"/>
-      <c r="T60" s="8"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="8"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="8"/>
-      <c r="T61" s="8"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="8"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
-      <c r="S62" s="8"/>
-      <c r="T62" s="8"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="8"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
-      <c r="S64" s="8"/>
-      <c r="T64" s="8"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="8"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
-      <c r="R65" s="8"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="8"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="8"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="8"/>
-      <c r="T66" s="8"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="8"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
-      <c r="S67" s="8"/>
-      <c r="T67" s="8"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="8"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
-      <c r="S68" s="8"/>
-      <c r="T68" s="8"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="8"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
-      <c r="S69" s="8"/>
-      <c r="T69" s="8"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="8"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="8"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="8"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="8"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="8"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B72" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
     </row>
     <row r="73" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
     </row>
     <row r="75" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
     </row>
     <row r="76" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
     </row>
     <row r="78" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
+      <c r="B79" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B80" s="9"/>
+    <row r="80" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
@@ -14341,6 +14794,3081 @@
       <c r="P86" s="1"/>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+    </row>
+    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B121" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="8"/>
+    </row>
+    <row r="122" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+    </row>
+    <row r="129" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+    </row>
+    <row r="133" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+    </row>
+    <row r="148" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+    </row>
+    <row r="154" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+    </row>
+    <row r="163" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+    </row>
+    <row r="167" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+    </row>
+    <row r="168" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+    </row>
+    <row r="169" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+    </row>
+    <row r="170" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+    </row>
+    <row r="171" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+    </row>
+    <row r="172" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+    </row>
+    <row r="173" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+    </row>
+    <row r="174" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+    </row>
+    <row r="175" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+    </row>
+    <row r="176" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+    </row>
+    <row r="177" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+    </row>
+    <row r="178" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+    </row>
+    <row r="179" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+    </row>
+    <row r="180" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+    </row>
+    <row r="181" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+    </row>
+    <row r="182" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+    </row>
+    <row r="183" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+    </row>
+    <row r="184" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+    </row>
+    <row r="185" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+    </row>
+    <row r="186" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+    </row>
+    <row r="187" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+    </row>
+    <row r="188" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+    </row>
+    <row r="189" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="1"/>
+      <c r="J189" s="1"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+    </row>
+    <row r="190" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="1"/>
+      <c r="J190" s="1"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+    </row>
+    <row r="191" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B80:L86"/>
+    <mergeCell ref="B87:L120"/>
+    <mergeCell ref="B121:L121"/>
+    <mergeCell ref="B122:L127"/>
+    <mergeCell ref="B4:L37"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B38:L38"/>
+    <mergeCell ref="B39:L44"/>
+    <mergeCell ref="B45:L78"/>
+    <mergeCell ref="B79:L79"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:U95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81:P90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B80" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+    </row>
+    <row r="81" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9"/>
@@ -14352,10 +17880,10 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
-      <c r="M87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-      <c r="P87" s="1"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B88" s="9"/>
@@ -14369,1823 +17897,119 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
-      <c r="M88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-      <c r="P89" s="1"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-      <c r="P94" s="1"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-      <c r="P95" s="1"/>
-    </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-    </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-    </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-    </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-    </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-    </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-    </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-    </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-    </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-    </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-    </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-    </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-    </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-    </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-    </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-    </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-    </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-    </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-    </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-    </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-    </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-    </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-    </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-    </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-    </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="1"/>
-      <c r="L135" s="1"/>
-    </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="1"/>
-      <c r="L136" s="1"/>
-    </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-    </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="1"/>
-      <c r="L138" s="1"/>
-    </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-    </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-    </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
-      <c r="K141" s="1"/>
-      <c r="L141" s="1"/>
-    </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-      <c r="K142" s="1"/>
-      <c r="L142" s="1"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B4:L37"/>
-    <mergeCell ref="B72:L72"/>
+  <mergeCells count="7">
+    <mergeCell ref="B39:L39"/>
+    <mergeCell ref="B4:L38"/>
     <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B73:L88"/>
-    <mergeCell ref="B38:V71"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:21" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:U3"/>
-    <mergeCell ref="B4:U38"/>
-    <mergeCell ref="B39:L39"/>
-    <mergeCell ref="B40:L49"/>
+    <mergeCell ref="B40:L44"/>
+    <mergeCell ref="B45:P79"/>
+    <mergeCell ref="B80:P80"/>
+    <mergeCell ref="B81:P90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.기획서/221018_UI시스템 기획서_V100.xlsx
+++ b/00.기획서/221018_UI시스템 기획서_V100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="3660" windowWidth="28800" windowHeight="15435" activeTab="4"/>
+    <workbookView xWindow="5190" yWindow="3660" windowWidth="28800" windowHeight="15435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>로딩 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 메인 화면에서 스토리 모드 버튼을 눌러 스토리 모드 진입 가능
 2. 스토리 모드 버튼을 터치하면 챕터 리스트 출력
 3. 플레이 가능한 챕터의 경우 밝은 톤의 UI 출력
@@ -138,10 +134,6 @@
 6. 스테이지 버튼을 누르면 스크롤 바 삭제
 7.플레이어가 시작 지점 반경에 있을 경우 밝은 톤의 버튼 활성화
 7-1.플레이어가 시작 지점 반경에 없을 경우 어두운 톤의 버튼으로 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -186,6 +178,18 @@
 8. 인벤토리의 아이템 슬롯이 가득 찼을 때 "공간이 부족합니다" 메세지 화면 중앙에 출력
 9-1. 같은 ID의 아이템의 경우, 9개까지 차고, 남은 슬롯에 아이템이 쌓인다
 9-2. 다른 ID의 경우, 남은 슬롯에 아이템이 쌓인다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챕터/ 스테이지 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 정보/ 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나중에 스토리 모드랑 합치기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12104,7 +12108,7 @@
   <dimension ref="B2:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="B2" sqref="B2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12768,7 +12772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -13264,8 +13268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V191"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N137" sqref="N136:N137"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13750,7 +13754,7 @@
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -13775,7 +13779,7 @@
     </row>
     <row r="39" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -14655,7 +14659,7 @@
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B79" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -14674,7 +14678,7 @@
     </row>
     <row r="80" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -15293,7 +15297,7 @@
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -15308,7 +15312,7 @@
     </row>
     <row r="122" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
@@ -16220,16 +16224,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B38:L38"/>
+    <mergeCell ref="B39:L44"/>
+    <mergeCell ref="B45:L78"/>
+    <mergeCell ref="B79:L79"/>
     <mergeCell ref="B80:L86"/>
     <mergeCell ref="B87:L120"/>
     <mergeCell ref="B121:L121"/>
     <mergeCell ref="B122:L127"/>
     <mergeCell ref="B4:L37"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B38:L38"/>
-    <mergeCell ref="B39:L44"/>
-    <mergeCell ref="B45:L78"/>
-    <mergeCell ref="B79:L79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16242,7 +16246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B81" sqref="B81:P90"/>
     </sheetView>
   </sheetViews>
@@ -17070,7 +17074,7 @@
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -17085,7 +17089,7 @@
     </row>
     <row r="40" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -17747,7 +17751,7 @@
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -17766,7 +17770,7 @@
     </row>
     <row r="81" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -18003,13 +18007,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B80:P80"/>
+    <mergeCell ref="B81:P90"/>
     <mergeCell ref="B39:L39"/>
     <mergeCell ref="B4:L38"/>
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="B40:L44"/>
     <mergeCell ref="B45:P79"/>
-    <mergeCell ref="B80:P80"/>
-    <mergeCell ref="B81:P90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.기획서/221018_UI시스템 기획서_V100.xlsx
+++ b/00.기획서/221018_UI시스템 기획서_V100.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="3660" windowWidth="28800" windowHeight="15435" activeTab="4"/>
+    <workbookView xWindow="5190" yWindow="3660" windowWidth="28800" windowHeight="15435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="로딩 화면" sheetId="2" r:id="rId2"/>
     <sheet name="메인화면" sheetId="3" r:id="rId3"/>
     <sheet name="챕터 선택 + 스테이지 선택" sheetId="4" r:id="rId4"/>
-    <sheet name="산책" sheetId="6" r:id="rId5"/>
+    <sheet name="스토리 모드" sheetId="7" r:id="rId5"/>
+    <sheet name="산책" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>로딩 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,43 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 메인 화면에서 스토리 모드 버튼을 눌러 스토리 모드 진입 가능
-2. 스토리 모드 버튼을 터치하면 챕터 리스트 출력
-3. 플레이 가능한 챕터의 경우 밝은 톤의 UI 출력
-3-1. 플레이 불가능한 챕터의 경우 어두운 톤의 UI 출력
-4. 플레이 불가능한 챕터 버튼 하단에 개방 조건 텍스트 출력
-5. 스크롤 바를 이용해 챕터 리스트를 확인할 수 있음 
-6. 플레이 가능한 챕터를 터치했을 경우 스테이지 전체 UI가 출력되고 그 안에 3 가지의 스테이지 버튼이 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. 스테이지 버튼을 누르면 시작 및 목표 지점들이 표시되어 있는 미니맵 출력
-2. 지점(시작지점과 목표지점)들은 선으로 연결되어 미니맵에 출력
-3. 플레이어의 위치가 GPS 상 미니맵 안에 존재한다면 미니맵에 플레이어의 현재 위치 원(동그라미)으로 출력
-4. 미니맵 하단에 스토리 개요 텍스트 출력
-5. 화면 최하단에 Start 버튼 출력
-6. 스테이지 버튼을 누르면 스크롤 바 삭제
-7.플레이어가 시작 지점 반경에 있을 경우 밝은 톤의 버튼 활성화
-7-1.플레이어가 시작 지점 반경에 없을 경우 어두운 톤의 버튼으로 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1. 스토리 모드를 시작하면 카메라 활성화 및 바닥 인식 후 캐릭터 출력
-2. 우측 화면 상단에 미니맵 출력
-2-1. 미니맵 안에는 플레이어의 위치와 경로가 표시됨
-3. 좌측 상단에 메뉴 버튼 출력
-4. 메뉴 버튼을 누르면 화면 일시정지 상태 돌입
-5. 일시정지 상태에서는 화면 중앙에 스토리 모드 종료 버튼과 재개 버튼 출력
-6. 휴대폰 전원을 끄고 다시 화면을 켰을 때 일시정지 상태로 돌입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UI 시스템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,6 +150,62 @@
 8. 인벤토리의 아이템 슬롯이 가득 찼을 때 "공간이 부족합니다" 메세지 화면 중앙에 출력
 9-1. 같은 ID의 아이템의 경우, 9개까지 차고, 남은 슬롯에 아이템이 쌓인다
 9-2. 다른 ID의 경우, 남은 슬롯에 아이템이 쌓인다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 스토리 모드를 시작하면 카메라 활성화 및 바닥 인식 후 캐릭터 출력
+2. 우측 화면 상단에 미니맵 출력
+2-1. 미니맵 안에는 플레이어의 위치와 경로가 표시됨
+3. 좌측 상단에 메뉴 버튼 출력
+4. 메뉴 버튼을 누르면 화면 일시정지 상태 돌입
+5. 일시정지 상태에서는 화면 중앙에 재개 버튼, 환경 설정 버튼, 나가기 버튼 출력
+6. 휴대폰 전원을 끄고 다시 화면을 켰을 때 일시정지 상태로 돌입
+7. 재개 버튼을 누르면 일시 정지 상태가 해제됨
+8. 환경 설정 버튼을 누르면 환경설정 UI 출력
+9. 나가기 버튼을 누르면 스토리 모드 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 메인 화면에서 스토리 모드 버튼을 눌러 스토리 모드 진입 가능
+2. 스토리 모드 버튼을 터치하면 챕터 리스트 출력
+3. 플레이 가능한 챕터의 경우 밝은 톤의 UI 출력
+3-1. 플레이 불가능한 챕터의 경우 어두운 톤의 UI 출력
+4. 플레이 불가능한 챕터 버튼 하단에 개방 조건 텍스트 출력
+5. 스크롤 바를 이용해 챕터 리스트를 확인할 수 있음 
+6. 플레이 가능한 챕터를 터치했을 경우 스테이지 전체 UI가 출력되고 그 안에 3 가지의 스테이지 버튼이 출력
+7. Stage 버튼 하단에 하트 아이콘 출력
+8. 하트 아이콘은 스테이지 안 호감도를 얻는 상호작용 수만큼 출력
+9. 하트 아이콘은 호감도 상호작용 순서이며, 호감도를 얻었을 경우 빨간 하트, 호감도를 얻지 못했을 경우 비어있는 하트 아이콘으로 출력
+10. Stage 버튼 하단에 해당 스테이지의 보상 정보와 예상 플레이 시간이 출력
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. 스테이지 버튼을 누르면 시작 및 목표 지점들이 표시되어 있는 미니맵 출력
+2. 지점(시작지점과 목표지점)들은 선으로 연결되어 미니맵에 출력
+3. 플레이어의 위치가 GPS 상 미니맵 안에 존재한다면 미니맵에 플레이어의 현재 위치 원(동그라미)으로 출력
+4. 돋보기 아이콘을 터치하면 맵이 크게 출력된다
+5. 미니맵 하단에 시작 지점에 대한 이미지와 상호명, 주소 텍스트가 출력
+6. 미니맵 하단에 스토리 개요 텍스트 출력
+7. 화면 최하단에 Start 버튼 출력
+8. 스테이지 버튼을 누르면 스크롤 바 삭제
+9.Start 버튼을 누르면 스토리 모드 시작
+10. 플레이어가 시작 지점 반경 8M 밖에 있을 경우, 스토리 모드가 시작되지 않고 "해당 지역을 가야 시작할 수 있습니다" 텍스트가 담긴 팝업창 출력
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,6 +320,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF73211"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -495,15 +520,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>637552</xdr:colOff>
+      <xdr:colOff>675652</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76496</xdr:rowOff>
+      <xdr:rowOff>57446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>585840</xdr:colOff>
+      <xdr:colOff>623940</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>19346</xdr:rowOff>
+      <xdr:rowOff>296</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -512,8 +537,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4428502" y="638471"/>
-          <a:ext cx="3377288" cy="6858000"/>
+          <a:off x="4452034" y="628946"/>
+          <a:ext cx="3366082" cy="6968938"/>
           <a:chOff x="6152295" y="0"/>
           <a:chExt cx="3382732" cy="6858000"/>
         </a:xfrm>
@@ -1717,8 +1742,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="660005" y="644269"/>
-          <a:ext cx="3388175" cy="6858000"/>
+          <a:off x="656643" y="653794"/>
+          <a:ext cx="3376969" cy="6968938"/>
           <a:chOff x="1832236" y="0"/>
           <a:chExt cx="3382732" cy="6858000"/>
         </a:xfrm>
@@ -3753,15 +3778,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4701</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>146545</xdr:rowOff>
+      <xdr:colOff>188882</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>644232</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>95243</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142611</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>125864</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3784,8 +3809,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="366651" y="9300070"/>
-          <a:ext cx="3382731" cy="6863848"/>
+          <a:off x="547470" y="10119743"/>
+          <a:ext cx="3371523" cy="6971827"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3797,15 +3822,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>447407</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>135771</xdr:rowOff>
+      <xdr:colOff>627690</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>20450</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>182581</xdr:rowOff>
+      <xdr:colOff>204629</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9095</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3814,8 +3839,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809357" y="10337046"/>
-          <a:ext cx="2316243" cy="465910"/>
+          <a:off x="986278" y="11176011"/>
+          <a:ext cx="2311175" cy="475996"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3958,15 +3983,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>287213</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>48999</xdr:rowOff>
+      <xdr:colOff>471394</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>79620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>661286</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>120242</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>159666</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>156306</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3975,8 +4000,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="649163" y="9621624"/>
-          <a:ext cx="374073" cy="280793"/>
+          <a:off x="829982" y="10445061"/>
+          <a:ext cx="371831" cy="289598"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -4114,15 +4139,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>447408</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>182580</xdr:rowOff>
+      <xdr:colOff>627691</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>20450</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>177894</xdr:rowOff>
+      <xdr:colOff>204629</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>4409</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4131,8 +4156,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809358" y="10802955"/>
-          <a:ext cx="2316242" cy="4395864"/>
+          <a:off x="986279" y="11652006"/>
+          <a:ext cx="2311174" cy="4466462"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4271,15 +4296,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>447407</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>142098</xdr:rowOff>
+      <xdr:colOff>627690</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>50868</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>20450</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>143261</xdr:rowOff>
+      <xdr:colOff>204629</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>52030</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4296,8 +4321,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809357" y="11391123"/>
-          <a:ext cx="2316243" cy="1887113"/>
+          <a:off x="988983" y="11546558"/>
+          <a:ext cx="2309629" cy="1893024"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4309,176 +4334,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>464964</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>82459</xdr:rowOff>
+      <xdr:colOff>88656</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>4779</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2892</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>92155</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="직사각형 45"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1512714" y="14684284"/>
-          <a:ext cx="909528" cy="428796"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ko-KR"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
-            <a:defRPr sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR"/>
-            <a:t>Start</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>590276</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>71729</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>589312</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>139572</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87692</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>75578</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4487,8 +4351,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952226" y="13416254"/>
-          <a:ext cx="2056436" cy="1115593"/>
+          <a:off x="1138729" y="14157535"/>
+          <a:ext cx="2062012" cy="1116226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4627,15 +4491,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>182380</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>25602</xdr:rowOff>
+      <xdr:colOff>337154</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>82011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>605706</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>185699</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>74680</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>32558</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4644,8 +4508,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1230130" y="13789227"/>
-          <a:ext cx="1794926" cy="369647"/>
+          <a:off x="1387227" y="14443852"/>
+          <a:ext cx="1800502" cy="368718"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4770,15 +4634,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>369284</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>142427</xdr:rowOff>
+      <xdr:colOff>549567</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>176007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>324672</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>88639</xdr:rowOff>
+      <xdr:colOff>504955</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>119260</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4787,8 +4651,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4160234" y="9295952"/>
-          <a:ext cx="3384388" cy="6861362"/>
+          <a:off x="4325949" y="10115625"/>
+          <a:ext cx="3373182" cy="6969341"/>
           <a:chOff x="6129260" y="0"/>
           <a:chExt cx="3382732" cy="6858000"/>
         </a:xfrm>
@@ -5266,7 +5130,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6571966" y="2089271"/>
+            <a:off x="6565374" y="1486866"/>
             <a:ext cx="2316243" cy="1885505"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -5427,7 +5291,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6689751" y="4112677"/>
+            <a:off x="6680488" y="4233745"/>
             <a:ext cx="2056436" cy="1114643"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -5695,25 +5559,2380 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="3390899"/>
+          <a:ext cx="1266825" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>보상</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>호감도 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>플레이 시간</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>: 15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>분</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>299605</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>194830</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="TextBox 59"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5451764" y="4688031"/>
+          <a:ext cx="1263361" cy="499629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>보상</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>호감도 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>플레이 시간</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>: 15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>분</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347826</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>164881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>243051</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>41055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="TextBox 66"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5491326" y="5984984"/>
+          <a:ext cx="1261570" cy="506795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>보상</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900"/>
+            <a:t>호감도 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900"/>
+            <a:t>100</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>플레이 시간</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t>: 15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" baseline="0"/>
+            <a:t>분</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="900" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>578407</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="하트 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505451" y="3181349"/>
+          <a:ext cx="235506" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F73211"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168832</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="하트 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781676" y="3181349"/>
+          <a:ext cx="235506" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="F73211"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>454582</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="하트 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067426" y="3190874"/>
+          <a:ext cx="235506" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F73211"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54532</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="하트 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353176" y="3190874"/>
+          <a:ext cx="235506" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="F73211"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>675652</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>58127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>227090</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67652</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="하트 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4459675" y="616638"/>
+          <a:ext cx="235506" cy="217344"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="F73211"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>261688</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>61531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>497194</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>71055</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="하트 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4729779" y="620042"/>
+          <a:ext cx="235506" cy="217343"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="F73211"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>548797</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>98503</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66971</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="하트 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5016888" y="615957"/>
+          <a:ext cx="233774" cy="217344"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="F73211"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>141943</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>377449</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68333</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="하트 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5294102" y="615959"/>
+          <a:ext cx="235506" cy="218704"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="F73211"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361785</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>597291</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162159</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="하트 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5505285" y="4501288"/>
+          <a:ext cx="235506" cy="219733"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="F73211"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>631889</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>156037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>184223</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165562</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="하트 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5775389" y="4504692"/>
+          <a:ext cx="235506" cy="219732"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="F73211"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>235826</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>151952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>468704</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="하트 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6062498" y="4500607"/>
+          <a:ext cx="232878" cy="219733"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="F73211"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>512144</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>151954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>64477</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>162840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="하트 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6338816" y="4500609"/>
+          <a:ext cx="235506" cy="221093"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="F73211"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>611743</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="하트 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5519737" y="5822964"/>
+          <a:ext cx="235506" cy="219733"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="F73211"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>646341</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15790</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="하트 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5789841" y="5826368"/>
+          <a:ext cx="235506" cy="219732"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="F73211"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>250278</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>483156</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>11706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="하트 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="5822283"/>
+          <a:ext cx="232878" cy="219733"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="F73211"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>526596</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>78929</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>13068</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="하트 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353268" y="5822285"/>
+          <a:ext cx="235506" cy="221093"/>
+        </a:xfrm>
+        <a:prstGeom prst="heart">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="F73211"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>67742</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>77737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>135854</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>169432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="그림 86"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1117815" y="13603237"/>
+          <a:ext cx="755771" cy="509866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142895</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>92759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>644735</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>157808</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="TextBox 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1880627" y="13409174"/>
+          <a:ext cx="1189498" cy="692305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>상호명</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>주소</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4647</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>41817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>500528</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>102421</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1054720" y="13358232"/>
+          <a:ext cx="1183540" cy="269689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>시작 지점</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>405996</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>100039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>474109</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>191734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="그림 90"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4894362" y="13625539"/>
+          <a:ext cx="755771" cy="509866"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>481150</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>115061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295331</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>180110</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="TextBox 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5657174" y="13431476"/>
+          <a:ext cx="1189498" cy="692305"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>상호명</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>주소</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>64119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>151124</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>124723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4831267" y="13380534"/>
+          <a:ext cx="1183540" cy="269689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>시작 지점</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>597192</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>109332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>135565</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>118856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="직사각형 93"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1644942" y="15339807"/>
+          <a:ext cx="909973" cy="428624"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR"/>
+            <a:t>Start</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270856</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>679174</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>182293</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="직사각형 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4760030" y="12962281"/>
+          <a:ext cx="2470687" cy="405925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>해당 지역에 가야 시작할 수 있습니다</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160261</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>1631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2969559" y="13267765"/>
+          <a:ext cx="283526" cy="292984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>247991</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>105675</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>212929</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>150498</xdr:rowOff>
+      <xdr:colOff>136388</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101973</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="49" name="그룹 48"/>
+        <xdr:cNvPr id="2" name="그룹 1"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="609941" y="18060300"/>
+          <a:off x="523875" y="600075"/>
           <a:ext cx="3393938" cy="6750423"/>
           <a:chOff x="1419449" y="0"/>
           <a:chExt cx="3382732" cy="6858000"/>
@@ -5721,7 +7940,7 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="50" name="그림 49"/>
+          <xdr:cNvPr id="3" name="그림 2"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -5750,7 +7969,7 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="53" name="그림 52"/>
+          <xdr:cNvPr id="4" name="그림 3"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -5773,7 +7992,117 @@
       </xdr:pic>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="54" name="그림 53"/>
+          <xdr:cNvPr id="5" name="그림 4"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2171980" y="1943913"/>
+            <a:ext cx="1697922" cy="4476749"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590208</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>103874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>555146</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>148697</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="그룹 8"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3685833" y="646799"/>
+          <a:ext cx="3393938" cy="6750423"/>
+          <a:chOff x="1419449" y="0"/>
+          <a:chExt cx="3382732" cy="6858000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="그림 9"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1419449" y="0"/>
+            <a:ext cx="3382732" cy="6858000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="그림 10"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3215494" y="252617"/>
+            <a:ext cx="1187397" cy="966584"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="그림 11"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -5805,20 +8134,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>553060</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228258</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>18149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>27965</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>475298</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>55639</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="그림 55"/>
+        <xdr:cNvPr id="13" name="그림 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5837,7 +8166,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="915010" y="18364200"/>
+          <a:off x="4009683" y="980174"/>
           <a:ext cx="247040" cy="247040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5850,178 +8179,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>533741</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>48525</xdr:rowOff>
+      <xdr:colOff>123483</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>132449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>498679</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>93348</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="57" name="그룹 56"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4324691" y="18003150"/>
-          <a:ext cx="3393938" cy="6750423"/>
-          <a:chOff x="1419449" y="0"/>
-          <a:chExt cx="3382732" cy="6858000"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="58" name="그림 57"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1419449" y="0"/>
-            <a:ext cx="3382732" cy="6858000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="61" name="그림 60"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3139546" y="252617"/>
-            <a:ext cx="1187397" cy="966584"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="62" name="그림 61"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2171980" y="1943913"/>
-            <a:ext cx="1697922" cy="4476749"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>133691</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>181875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>380731</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>9815</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="그림 62"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4610441" y="18346050"/>
-          <a:ext cx="247040" cy="247040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190159</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="직사각형 63"/>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4524374" y="18221324"/>
+          <a:off x="3904908" y="884924"/>
           <a:ext cx="2809876" cy="6124575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6067,25 +8242,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>350664</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>6260</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>474148</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>574392</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>15956</xdr:rowOff>
+      <xdr:colOff>12076</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="직사각형 65"/>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5513214" y="20894585"/>
+          <a:off x="4941373" y="3358160"/>
           <a:ext cx="909528" cy="428796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6227,25 +8402,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>350665</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>177710</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>436049</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>574393</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>187406</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>659777</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>43631</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="직사각형 64"/>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5513215" y="21694685"/>
+          <a:off x="4903274" y="4558310"/>
           <a:ext cx="909528" cy="428796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6385,10 +8560,214 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47015</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>27965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="838200" y="952500"/>
+          <a:ext cx="247040" cy="247040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>464623</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2551</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>43631</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4931848" y="3929660"/>
+          <a:ext cx="909528" cy="428796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ko-KR"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="1" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200"/>
+            <a:t>환경 설정</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13262,10 +15641,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V191"/>
+  <dimension ref="B1:V195"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N137" sqref="N136:N137"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R67" sqref="R67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13475,7 +15854,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -13488,7 +15867,7 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -13501,7 +15880,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -13514,7 +15893,7 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -13526,8 +15905,14 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -13540,7 +15925,7 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -13553,7 +15938,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -13566,7 +15951,7 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -13579,7 +15964,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -13591,8 +15976,11 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -13605,7 +15993,7 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -13618,7 +16006,7 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -13631,7 +16019,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -13644,7 +16032,7 @@
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -13657,7 +16045,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -13670,7 +16058,7 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -13775,7 +16163,7 @@
     </row>
     <row r="39" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -13914,17 +16302,17 @@
       <c r="V44" s="2"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -13937,17 +16325,17 @@
       <c r="V45" s="2"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -13960,17 +16348,17 @@
       <c r="V46" s="2"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -14654,9 +17042,7 @@
       <c r="P78" s="1"/>
     </row>
     <row r="79" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B79" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
@@ -14673,77 +17059,79 @@
       <c r="P79" s="1"/>
     </row>
     <row r="80" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
+      <c r="B83" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B84" s="9"/>
+    <row r="84" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
@@ -14794,597 +17182,593 @@
       <c r="P86" s="1"/>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
-      <c r="L93" s="11"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-      <c r="L99" s="11"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
-      <c r="L101" s="11"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
-      <c r="L103" s="11"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
-      <c r="L104" s="11"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="11"/>
-      <c r="L106" s="11"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="11"/>
-      <c r="L107" s="11"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
-      <c r="I108" s="11"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="11"/>
-      <c r="L108" s="11"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="11"/>
-      <c r="L109" s="11"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="11"/>
-      <c r="L110" s="11"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-      <c r="G112" s="11"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="11"/>
-      <c r="L112" s="11"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
     </row>
     <row r="113" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="11"/>
-      <c r="L113" s="11"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
     </row>
     <row r="114" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="11"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="11"/>
-      <c r="L114" s="11"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
     </row>
     <row r="115" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
     </row>
     <row r="116" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="11"/>
-      <c r="L116" s="11"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
     </row>
     <row r="117" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="11"/>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="11"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="11"/>
-      <c r="L117" s="11"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
     </row>
     <row r="118" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
-      <c r="L118" s="11"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
     </row>
     <row r="119" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11"/>
-      <c r="G119" s="11"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="11"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="11"/>
-      <c r="L119" s="11"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
     </row>
     <row r="120" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="11"/>
-      <c r="L120" s="11"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
     </row>
     <row r="121" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B121" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
     </row>
     <row r="122" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
-      <c r="L122" s="9"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
     </row>
     <row r="123" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
-      <c r="L123" s="9"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
     </row>
     <row r="124" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="9"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
     </row>
     <row r="125" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
-      <c r="L125" s="9"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
     </row>
     <row r="126" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
-      <c r="L126" s="9"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
     </row>
     <row r="127" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
-      <c r="L127" s="9"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
     </row>
     <row r="128" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B128" s="3"/>
@@ -15517,69 +17901,69 @@
       <c r="L137" s="3"/>
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
     </row>
     <row r="139" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B143" s="2"/>
@@ -15777,56 +18161,56 @@
       <c r="L157" s="2"/>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="1"/>
-      <c r="L158" s="1"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="1"/>
-      <c r="L159" s="1"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="1"/>
-      <c r="L160" s="1"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="1"/>
-      <c r="L161" s="1"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
@@ -16218,18 +18602,67 @@
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
     </row>
+    <row r="192" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="1"/>
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+    </row>
+    <row r="193" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+    </row>
+    <row r="194" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+    </row>
+    <row r="195" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B80:L86"/>
-    <mergeCell ref="B87:L120"/>
-    <mergeCell ref="B121:L121"/>
-    <mergeCell ref="B122:L127"/>
-    <mergeCell ref="B4:L37"/>
+  <mergeCells count="7">
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="B38:L38"/>
-    <mergeCell ref="B39:L44"/>
-    <mergeCell ref="B45:L78"/>
-    <mergeCell ref="B79:L79"/>
+    <mergeCell ref="B83:L83"/>
+    <mergeCell ref="B39:L47"/>
+    <mergeCell ref="B48:L82"/>
+    <mergeCell ref="B4:L37"/>
+    <mergeCell ref="B84:L93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16240,10 +18673,613 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="B4:L36"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B38:L45"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81:P90"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S63" sqref="S63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17070,7 +20106,7 @@
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -17085,7 +20121,7 @@
     </row>
     <row r="40" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -17747,7 +20783,7 @@
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -17766,7 +20802,7 @@
     </row>
     <row r="81" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -18003,13 +21039,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B80:P80"/>
+    <mergeCell ref="B81:P90"/>
     <mergeCell ref="B39:L39"/>
     <mergeCell ref="B4:L38"/>
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="B40:L44"/>
     <mergeCell ref="B45:P79"/>
-    <mergeCell ref="B80:P80"/>
-    <mergeCell ref="B81:P90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/00.기획서/221018_UI시스템 기획서_V100.xlsx
+++ b/00.기획서/221018_UI시스템 기획서_V100.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="3660" windowWidth="28800" windowHeight="15435" activeTab="3"/>
+    <workbookView xWindow="5190" yWindow="3660" windowWidth="28800" windowHeight="15435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>로딩 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,24 +116,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 1. 메인 화면에서 산책 버튼을 통해 산책 진입 가능
 2. 산책 진입하면 화면 좌측 하단에 인벤토리 버튼과 우측 하단에 캐릭터 호출 혹은 퇴장 버튼 한 가지만 출력
 3. 캐릭터가 출력되지 않은 상태면 캐릭터 호출 버튼이 출력
 3-1. 캐릭터가 출력된 상태면 캐릭터 퇴장 버튼 출력
 4. 캐릭터가 출력되지 않은 상태에서 캐릭터 호출 버튼을 터치하면 캐릭터가 화면에 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI 시스템 기획</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -206,6 +194,26 @@
 9.Start 버튼을 누르면 스토리 모드 시작
 10. 플레이어가 시작 지점 반경 8M 밖에 있을 경우, 스토리 모드가 시작되지 않고 "해당 지역을 가야 시작할 수 있습니다" 텍스트가 담긴 팝업창 출력
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챕터 및 스테이지 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 입장 시 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토리 모드 진행 시 일시정지 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산책 화면 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 및 선물 UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,8 +545,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4452034" y="628946"/>
-          <a:ext cx="3366082" cy="6968938"/>
+          <a:off x="4477369" y="612381"/>
+          <a:ext cx="3385571" cy="6776002"/>
           <a:chOff x="6152295" y="0"/>
           <a:chExt cx="3382732" cy="6858000"/>
         </a:xfrm>
@@ -1742,8 +1750,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="656643" y="653794"/>
-          <a:ext cx="3376969" cy="6968938"/>
+          <a:off x="662490" y="637229"/>
+          <a:ext cx="3396457" cy="6776002"/>
           <a:chOff x="1832236" y="0"/>
           <a:chExt cx="3382732" cy="6858000"/>
         </a:xfrm>
@@ -4651,8 +4659,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4325949" y="10115625"/>
-          <a:ext cx="3373182" cy="6969341"/>
+          <a:off x="4351284" y="9841811"/>
+          <a:ext cx="3392671" cy="6776406"/>
           <a:chOff x="6129260" y="0"/>
           <a:chExt cx="3382732" cy="6858000"/>
         </a:xfrm>
@@ -6035,246 +6043,6 @@
         </a:solidFill>
         <a:ln>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>675652</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>58127</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>227090</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>67652</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="하트 74"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4459675" y="616638"/>
-          <a:ext cx="235506" cy="217344"/>
-        </a:xfrm>
-        <a:prstGeom prst="heart">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="F73211"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>261688</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>61531</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>497194</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>71055</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="하트 75"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4729779" y="620042"/>
-          <a:ext cx="235506" cy="217343"/>
-        </a:xfrm>
-        <a:prstGeom prst="heart">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="F73211"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>548797</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57446</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>98503</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66971</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="하트 76"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5016888" y="615957"/>
-          <a:ext cx="233774" cy="217344"/>
-        </a:xfrm>
-        <a:prstGeom prst="heart">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="F73211"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>141943</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>57448</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>377449</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>68333</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="하트 77"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5294102" y="615959"/>
-          <a:ext cx="235506" cy="218704"/>
-        </a:xfrm>
-        <a:prstGeom prst="heart">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="F73211"/>
-          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -15643,8 +15411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R67" sqref="R67"/>
+    <sheetView topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83:L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15906,10 +15674,10 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
@@ -15977,7 +15745,7 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="N25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
@@ -16138,7 +15906,7 @@
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -16163,7 +15931,7 @@
     </row>
     <row r="39" spans="2:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -17111,7 +16879,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B83" s="11" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -17130,7 +16898,7 @@
     </row>
     <row r="84" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -18656,13 +18424,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B84:L93"/>
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="B38:L38"/>
     <mergeCell ref="B83:L83"/>
     <mergeCell ref="B39:L47"/>
     <mergeCell ref="B48:L82"/>
     <mergeCell ref="B4:L37"/>
-    <mergeCell ref="B84:L93"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18675,8 +18443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19142,7 +18910,7 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -19157,7 +18925,7 @@
     </row>
     <row r="38" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -19278,8 +19046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U95"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S63" sqref="S63"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80:P80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20106,7 +19874,7 @@
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -20121,7 +19889,7 @@
     </row>
     <row r="40" spans="2:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -20783,7 +20551,7 @@
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -20802,7 +20570,7 @@
     </row>
     <row r="81" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>

--- a/00.기획서/221018_UI시스템 기획서_V100.xlsx
+++ b/00.기획서/221018_UI시스템 기획서_V100.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_24\Documents\GitHub\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="3660" windowWidth="28800" windowHeight="15435" activeTab="5"/>
+    <workbookView xWindow="5190" yWindow="3660" windowWidth="28800" windowHeight="15435" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>로딩 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,12 +216,132 @@
     <t>인벤토리 및 선물 UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>모션 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발동 상황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치 시 2종 중 1개 랜덤 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인화면 최초 진입 시 표출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle 상태일때 20초당 1번식 랜덤 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치시 터치 모션과 함께 랜덤 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*모든 대사는 3초간 대사 창 과 함께 출력 이후 대사창 페이드 아웃 하며 종료 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">**변수 : 기본 대사 중 터치 -&gt; 터치 모션과 대사로 교체 됨 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">뒤로가기 버튼 클릭 시 게임 종료 여부 메시지 표기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +382,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -271,12 +399,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -285,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,6 +464,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,6 +685,311 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>151530</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="13211175"/>
+          <a:ext cx="2809005" cy="6391275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="15535275"/>
+          <a:ext cx="2447925" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="15716250"/>
+          <a:ext cx="1838325" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>게임을 종료 하시겠습니까</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="16297274"/>
+          <a:ext cx="781050" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>종료 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2362200" y="16306799"/>
+          <a:ext cx="781050" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>돌아가기 </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8011,13 +8483,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>474148</xdr:colOff>
+      <xdr:colOff>445573</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>91085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>12076</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>669301</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>100781</xdr:rowOff>
     </xdr:to>
@@ -8028,7 +8500,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4941373" y="3358160"/>
+          <a:off x="4912798" y="3358160"/>
           <a:ext cx="909528" cy="428796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14585,8 +15057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P28" sqref="O28:P28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14913,10 +15385,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I48"/>
+  <dimension ref="B2:Q95"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15376,34 +15848,253 @@
       <c r="I46" s="4"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B52" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+    </row>
+    <row r="53" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B54" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B55" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B56" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B57" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="Q57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B58" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B59" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B60" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B61" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B62" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="20">
+    <mergeCell ref="I54:L56"/>
+    <mergeCell ref="I57:L60"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
     <mergeCell ref="B2:I3"/>
     <mergeCell ref="B4:I35"/>
     <mergeCell ref="B36:I43"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:F50"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D47:F47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15411,8 +16102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V195"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83:L83"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18443,8 +19134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:L37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19046,7 +19737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B80" sqref="B80:P80"/>
     </sheetView>
   </sheetViews>
